--- a/Code/Results/Cases/Case_4_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.772933976590878</v>
+        <v>2.547008414586003</v>
       </c>
       <c r="C2">
-        <v>0.219058312939012</v>
+        <v>0.07789452405344832</v>
       </c>
       <c r="D2">
-        <v>0.1864890442636664</v>
+        <v>0.07585075576982092</v>
       </c>
       <c r="E2">
-        <v>0.02712140207505165</v>
+        <v>0.04605413356096832</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008510399700794182</v>
+        <v>0.002651283421994027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.607520421622212</v>
+        <v>2.064225797974728</v>
       </c>
       <c r="L2">
-        <v>0.3003835714810208</v>
+        <v>0.2704044349660819</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.818869467644902</v>
+        <v>5.3160120756271</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.456273394823995</v>
+        <v>2.482129439093057</v>
       </c>
       <c r="C3">
-        <v>0.1881708555611397</v>
+        <v>0.06982563133261976</v>
       </c>
       <c r="D3">
-        <v>0.1607784514654753</v>
+        <v>0.06921157424085322</v>
       </c>
       <c r="E3">
-        <v>0.02513408628898617</v>
+        <v>0.04583233068188441</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008611591420360485</v>
+        <v>0.002657252036143642</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.293089190586585</v>
+        <v>1.996212624205413</v>
       </c>
       <c r="L3">
-        <v>0.2658122151342468</v>
+        <v>0.2632962233936524</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.575667092202252</v>
+        <v>5.234119080627721</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.267073504307859</v>
+        <v>2.443829364750627</v>
       </c>
       <c r="C4">
-        <v>0.1696191672481717</v>
+        <v>0.06491012946081298</v>
       </c>
       <c r="D4">
-        <v>0.145314162756037</v>
+        <v>0.06517865214294716</v>
       </c>
       <c r="E4">
-        <v>0.02395756726406795</v>
+        <v>0.04571674914006607</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008675221722356421</v>
+        <v>0.002661106511512045</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.105013334507504</v>
+        <v>1.955752477497271</v>
       </c>
       <c r="L4">
-        <v>0.2451513395059948</v>
+        <v>0.2590969603842126</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.429873695567807</v>
+        <v>5.184229373366747</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.191139178074195</v>
+        <v>2.428606437458257</v>
       </c>
       <c r="C5">
-        <v>0.1621478246314609</v>
+        <v>0.06291653258986685</v>
       </c>
       <c r="D5">
-        <v>0.1390820227608174</v>
+        <v>0.06354598158795</v>
       </c>
       <c r="E5">
-        <v>0.02348820107288496</v>
+        <v>0.04567482925663846</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008701551529302885</v>
+        <v>0.002662725120790213</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.029475512051647</v>
+        <v>1.939589851928133</v>
       </c>
       <c r="L5">
-        <v>0.2368580580368445</v>
+        <v>0.2574270923006452</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.371252239123976</v>
+        <v>5.163996299974428</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.178596671608261</v>
+        <v>2.426101870312834</v>
       </c>
       <c r="C6">
-        <v>0.1609121462081333</v>
+        <v>0.06258606436009018</v>
       </c>
       <c r="D6">
-        <v>0.1380510779738415</v>
+        <v>0.0632755237459719</v>
       </c>
       <c r="E6">
-        <v>0.02341084646866953</v>
+        <v>0.04566818135796602</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008705948370230081</v>
+        <v>0.002662996786257241</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.01699512904375</v>
+        <v>1.936925652241683</v>
       </c>
       <c r="L6">
-        <v>0.2354881423119224</v>
+        <v>0.2571523052672973</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.361563234507742</v>
+        <v>5.160642454335914</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.266044892900936</v>
+        <v>2.443622507573423</v>
       </c>
       <c r="C7">
-        <v>0.1695180664670062</v>
+        <v>0.06488320494260336</v>
       </c>
       <c r="D7">
-        <v>0.1452298460001629</v>
+        <v>0.06515658996578111</v>
       </c>
       <c r="E7">
-        <v>0.02395119758429054</v>
+        <v>0.04571616281904411</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008675575167356175</v>
+        <v>0.002661128146284159</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.103990319633084</v>
+        <v>1.955533188184177</v>
       </c>
       <c r="L7">
-        <v>0.2450390027385367</v>
+        <v>0.2590742727000901</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.42908002855404</v>
+        <v>5.183956110679361</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.662569360786563</v>
+        <v>2.524318405676524</v>
       </c>
       <c r="C8">
-        <v>0.208312827454705</v>
+        <v>0.0751041542181099</v>
       </c>
       <c r="D8">
-        <v>0.1775500234299017</v>
+        <v>0.07355241597844042</v>
       </c>
       <c r="E8">
-        <v>0.02642652861021233</v>
+        <v>0.04597337816994695</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008544994293464507</v>
+        <v>0.002653302127495127</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.497975270192114</v>
+        <v>2.040503914449744</v>
       </c>
       <c r="L8">
-        <v>0.2883356695589896</v>
+        <v>0.2679191242568777</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.734217912769594</v>
+        <v>5.28769293944427</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.489231946911048</v>
+        <v>2.694831807086018</v>
       </c>
       <c r="C9">
-        <v>0.2884496311791906</v>
+        <v>0.09546807421580183</v>
       </c>
       <c r="D9">
-        <v>0.2440593767123431</v>
+        <v>0.09037113022728249</v>
       </c>
       <c r="E9">
-        <v>0.03167356043333314</v>
+        <v>0.04664142096421919</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008299643212340784</v>
+        <v>0.002639452809570968</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.317720476401917</v>
+        <v>2.21753863801888</v>
       </c>
       <c r="L9">
-        <v>0.378550737935754</v>
+        <v>0.2865840669068831</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.36559373918368</v>
+        <v>5.494312885516422</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.138565323942316</v>
+        <v>2.827720222039716</v>
       </c>
       <c r="C10">
-        <v>0.3510521797045385</v>
+        <v>0.1106439127221108</v>
       </c>
       <c r="D10">
-        <v>0.2957443073688069</v>
+        <v>0.1029576105584056</v>
       </c>
       <c r="E10">
-        <v>0.03584114244486081</v>
+        <v>0.04723232611098283</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008124067931693027</v>
+        <v>0.002630179568036741</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.960809688103438</v>
+        <v>2.354094252442167</v>
       </c>
       <c r="L10">
-        <v>0.4493716366892357</v>
+        <v>0.3011170051718182</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.857456765476513</v>
+        <v>5.648181674564455</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.446275663107372</v>
+        <v>2.889857923294983</v>
       </c>
       <c r="C11">
-        <v>0.3806748869727414</v>
+        <v>0.1175986038835504</v>
       </c>
       <c r="D11">
-        <v>0.3201108483841324</v>
+        <v>0.1087364794088472</v>
       </c>
       <c r="E11">
-        <v>0.03782411011917652</v>
+        <v>0.04752296404874912</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008044725900735872</v>
+        <v>0.002626154393822372</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.265436776917568</v>
+        <v>2.41765846226707</v>
       </c>
       <c r="L11">
-        <v>0.4829199667660333</v>
+        <v>0.3079098453166296</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.089368633498168</v>
+        <v>5.718655742241538</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.564885390114</v>
+        <v>2.913632502236794</v>
       </c>
       <c r="C12">
-        <v>0.3920900696937224</v>
+        <v>0.1202398348067959</v>
       </c>
       <c r="D12">
-        <v>0.3294845278932002</v>
+        <v>0.1109326642924913</v>
       </c>
       <c r="E12">
-        <v>0.03858940722285453</v>
+        <v>0.04763616568208739</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008014709512985733</v>
+        <v>0.00262465777576276</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.382845449959689</v>
+        <v>2.441938652583644</v>
       </c>
       <c r="L12">
-        <v>0.4958492492582138</v>
+        <v>0.3105084972751513</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.178564606446798</v>
+        <v>5.74541308086458</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.539242333395293</v>
+        <v>2.908501321283381</v>
       </c>
       <c r="C13">
-        <v>0.3896222269920031</v>
+        <v>0.1196706540219452</v>
       </c>
       <c r="D13">
-        <v>0.3274588015339503</v>
+        <v>0.1104593241099252</v>
       </c>
       <c r="E13">
-        <v>0.03842391413514434</v>
+        <v>0.04761164581772803</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008021173632544114</v>
+        <v>0.002624978872860145</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.3574625226031</v>
+        <v>2.436700114078747</v>
       </c>
       <c r="L13">
-        <v>0.4930540841378956</v>
+        <v>0.3099476555983784</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.159289903482033</v>
+        <v>5.739647256047931</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.455989965461924</v>
+        <v>2.891808963290828</v>
       </c>
       <c r="C14">
-        <v>0.381609849555872</v>
+        <v>0.117815744748782</v>
       </c>
       <c r="D14">
-        <v>0.3208789398163958</v>
+        <v>0.1089170023225279</v>
       </c>
       <c r="E14">
-        <v>0.0378867715100597</v>
+        <v>0.04753221419423781</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008042256154735766</v>
+        <v>0.002626030713536706</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.275052928956427</v>
+        <v>2.419651791136118</v>
       </c>
       <c r="L14">
-        <v>0.4839789399294006</v>
+        <v>0.308123108601464</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.096677993207777</v>
+        <v>5.720855665974568</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.405277366745793</v>
+        <v>2.881616295405593</v>
       </c>
       <c r="C15">
-        <v>0.3767288590628937</v>
+        <v>0.116680562895624</v>
       </c>
       <c r="D15">
-        <v>0.3168684412157887</v>
+        <v>0.1079733143451307</v>
       </c>
       <c r="E15">
-        <v>0.0375596901749784</v>
+        <v>0.04748396951061196</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008055172025715151</v>
+        <v>0.00262667858909848</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.224852243602243</v>
+        <v>2.409236586966017</v>
       </c>
       <c r="L15">
-        <v>0.478450578713904</v>
+        <v>0.3070089590901546</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.058512116623547</v>
+        <v>5.709354480870502</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.118729517916051</v>
+        <v>2.823693468818306</v>
       </c>
       <c r="C16">
-        <v>0.349142009506096</v>
+        <v>0.1101904606373694</v>
       </c>
       <c r="D16">
-        <v>0.2941710407069564</v>
+        <v>0.1025810357740227</v>
       </c>
       <c r="E16">
-        <v>0.0357134569954507</v>
+        <v>0.04721377188450582</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008129259869207659</v>
+        <v>0.002630446497774731</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.941170603309672</v>
+        <v>2.349969425143456</v>
       </c>
       <c r="L16">
-        <v>0.4472087412112842</v>
+        <v>0.3006767525334624</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.842481623474697</v>
+        <v>5.643585786683616</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.946307357457044</v>
+        <v>2.788592891987491</v>
       </c>
       <c r="C17">
-        <v>0.3325334670440725</v>
+        <v>0.1062222915081463</v>
       </c>
       <c r="D17">
-        <v>0.2804816080924013</v>
+        <v>0.09928681885655521</v>
       </c>
       <c r="E17">
-        <v>0.03460440790077612</v>
+        <v>0.04705360882100074</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008174814161555696</v>
+        <v>0.002632807371833162</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.770445433033387</v>
+        <v>2.313982362269314</v>
       </c>
       <c r="L17">
-        <v>0.4284064026323762</v>
+        <v>0.2968388485424072</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.71217894144371</v>
+        <v>5.603362444000425</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.848273417986547</v>
+        <v>2.768562553925278</v>
       </c>
       <c r="C18">
-        <v>0.3230861316596076</v>
+        <v>0.1039447002810334</v>
       </c>
       <c r="D18">
-        <v>0.2726866558371768</v>
+        <v>0.09739706916380442</v>
       </c>
       <c r="E18">
-        <v>0.03397458556636224</v>
+        <v>0.04696354196110875</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008201068692643698</v>
+        <v>0.00263418348543083</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.673364595979649</v>
+        <v>2.293419378300541</v>
       </c>
       <c r="L18">
-        <v>0.4177148282901015</v>
+        <v>0.2946484799700073</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.637986680338116</v>
+        <v>5.580271975283608</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.815267578899579</v>
+        <v>2.761807805044896</v>
       </c>
       <c r="C19">
-        <v>0.3199046131199168</v>
+        <v>0.1031743618076177</v>
       </c>
       <c r="D19">
-        <v>0.270060296605152</v>
+        <v>0.09675808453519608</v>
       </c>
       <c r="E19">
-        <v>0.03376267267212363</v>
+        <v>0.04693339965272081</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008209968439528146</v>
+        <v>0.002634652544893039</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.640677483024206</v>
+        <v>2.286480369606011</v>
       </c>
       <c r="L19">
-        <v>0.4141150279089771</v>
+        <v>0.293909787876018</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.612990334833967</v>
+        <v>5.572461609922101</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.964542012838479</v>
+        <v>2.792312981569808</v>
       </c>
       <c r="C20">
-        <v>0.3342903367864949</v>
+        <v>0.1066442115785549</v>
       </c>
       <c r="D20">
-        <v>0.2819305509748347</v>
+        <v>0.09963697528668547</v>
       </c>
       <c r="E20">
-        <v>0.03472161986126565</v>
+        <v>0.04707044577207142</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000816995967227068</v>
+        <v>0.002632554170158121</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.788501808852004</v>
+        <v>2.317799174319759</v>
       </c>
       <c r="L20">
-        <v>0.430394981588563</v>
+        <v>0.2972456294262855</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.725970436121059</v>
+        <v>5.607639625833997</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.480383828921674</v>
+        <v>2.896705265498213</v>
       </c>
       <c r="C21">
-        <v>0.3839576224311259</v>
+        <v>0.1183603668876856</v>
       </c>
       <c r="D21">
-        <v>0.3228074190280523</v>
+        <v>0.1093698048863416</v>
       </c>
       <c r="E21">
-        <v>0.03804413654565231</v>
+        <v>0.04755545984490972</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008036063339706114</v>
+        <v>0.002625721013931975</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.299200144063661</v>
+        <v>2.424653585823933</v>
       </c>
       <c r="L21">
-        <v>0.4866381210511435</v>
+        <v>0.3086583053671887</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.115029517950006</v>
+        <v>5.726373290091999</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.829861165043667</v>
+        <v>2.966357018756469</v>
       </c>
       <c r="C22">
-        <v>0.417589940554933</v>
+        <v>0.1260622225173904</v>
       </c>
       <c r="D22">
-        <v>0.3503910940196135</v>
+        <v>0.1157766383560812</v>
       </c>
       <c r="E22">
-        <v>0.04030054531121685</v>
+        <v>0.04789076850931906</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007948694339490797</v>
+        <v>0.002621416112604802</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.645121797052013</v>
+        <v>2.495713027773434</v>
       </c>
       <c r="L22">
-        <v>0.5247288978619622</v>
+        <v>0.316270846395895</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.377439851450561</v>
+        <v>5.804383322703472</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.642091847093411</v>
+        <v>2.929051498752187</v>
       </c>
       <c r="C23">
-        <v>0.3995200989012346</v>
+        <v>0.1219474133029053</v>
       </c>
       <c r="D23">
-        <v>0.3355808984649542</v>
+        <v>0.112352926907036</v>
       </c>
       <c r="E23">
-        <v>0.03908779381689165</v>
+        <v>0.04771012994365442</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007995329566315247</v>
+        <v>0.002623699045465951</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.459267349774677</v>
+        <v>2.457674570833433</v>
       </c>
       <c r="L23">
-        <v>0.5042646153424499</v>
+        <v>0.3121937533296517</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.236566637499493</v>
+        <v>5.762709803048324</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.956294741099157</v>
+        <v>2.790630663707304</v>
       </c>
       <c r="C24">
-        <v>0.3334957433865213</v>
+        <v>0.1064534498187868</v>
       </c>
       <c r="D24">
-        <v>0.2812752511401584</v>
+        <v>0.09947865668638656</v>
       </c>
       <c r="E24">
-        <v>0.03466860422316209</v>
+        <v>0.04706282751670265</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008172154181878809</v>
+        <v>0.002632668584076292</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.780335207542691</v>
+        <v>2.316073199862103</v>
       </c>
       <c r="L24">
-        <v>0.4294955795420918</v>
+        <v>0.2970616736772485</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.719733072132243</v>
+        <v>5.605705804687204</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.259192520675356</v>
+        <v>2.647376382923369</v>
       </c>
       <c r="C25">
-        <v>0.2662168943057281</v>
+        <v>0.08992281830484217</v>
       </c>
       <c r="D25">
-        <v>0.2256446556163354</v>
+        <v>0.08578186883910632</v>
       </c>
       <c r="E25">
-        <v>0.0302050365496509</v>
+        <v>0.04644314528824545</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008365046964747007</v>
+        <v>0.002643040245885908</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.08975863715574</v>
+        <v>2.168517193931166</v>
       </c>
       <c r="L25">
-        <v>0.3534522853013158</v>
+        <v>0.2813918379020635</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.190503776596472</v>
+        <v>5.438062713733103</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.547008414586003</v>
+        <v>2.772933976591105</v>
       </c>
       <c r="C2">
-        <v>0.07789452405344832</v>
+        <v>0.2190583129392536</v>
       </c>
       <c r="D2">
-        <v>0.07585075576982092</v>
+        <v>0.1864890442640501</v>
       </c>
       <c r="E2">
-        <v>0.04605413356096832</v>
+        <v>0.02712140207509073</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002651283421994027</v>
+        <v>0.0008510399701389722</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.064225797974728</v>
+        <v>2.60752042162224</v>
       </c>
       <c r="L2">
-        <v>0.2704044349660819</v>
+        <v>0.3003835714808929</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.3160120756271</v>
+        <v>4.81886946764493</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.482129439093057</v>
+        <v>2.456273394824166</v>
       </c>
       <c r="C3">
-        <v>0.06982563133261976</v>
+        <v>0.1881708555613386</v>
       </c>
       <c r="D3">
-        <v>0.06921157424085322</v>
+        <v>0.1607784514657453</v>
       </c>
       <c r="E3">
-        <v>0.04583233068188441</v>
+        <v>0.02513408628894886</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002657252036143642</v>
+        <v>0.0008611591420294764</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.996212624205413</v>
+        <v>2.293089190586556</v>
       </c>
       <c r="L3">
-        <v>0.2632962233936524</v>
+        <v>0.2658122151342184</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.234119080627721</v>
+        <v>4.575667092202252</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.443829364750627</v>
+        <v>2.267073504307916</v>
       </c>
       <c r="C4">
-        <v>0.06491012946081298</v>
+        <v>0.1696191672484133</v>
       </c>
       <c r="D4">
-        <v>0.06517865214294716</v>
+        <v>0.1453141627561507</v>
       </c>
       <c r="E4">
-        <v>0.04571674914006607</v>
+        <v>0.02395756726405729</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002661106511512045</v>
+        <v>0.000867522172230055</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.955752477497271</v>
+        <v>2.105013334507447</v>
       </c>
       <c r="L4">
-        <v>0.2590969603842126</v>
+        <v>0.2451513395059095</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.184229373366747</v>
+        <v>4.429873695567721</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.428606437458257</v>
+        <v>2.191139178074366</v>
       </c>
       <c r="C5">
-        <v>0.06291653258986685</v>
+        <v>0.1621478246312336</v>
       </c>
       <c r="D5">
-        <v>0.06354598158795</v>
+        <v>0.1390820227609737</v>
       </c>
       <c r="E5">
-        <v>0.04567482925663846</v>
+        <v>0.02348820107289029</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002662725120790213</v>
+        <v>0.0008701551529320765</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.939589851928133</v>
+        <v>2.029475512051533</v>
       </c>
       <c r="L5">
-        <v>0.2574270923006452</v>
+        <v>0.236858058036816</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.163996299974428</v>
+        <v>4.371252239123947</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.426101870312834</v>
+        <v>2.178596671608261</v>
       </c>
       <c r="C6">
-        <v>0.06258606436009018</v>
+        <v>0.1609121462081191</v>
       </c>
       <c r="D6">
-        <v>0.0632755237459719</v>
+        <v>0.1380510779740689</v>
       </c>
       <c r="E6">
-        <v>0.04566818135796602</v>
+        <v>0.02341084646869085</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002662996786257241</v>
+        <v>0.0008705948370205441</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.936925652241683</v>
+        <v>2.01699512904375</v>
       </c>
       <c r="L6">
-        <v>0.2571523052672973</v>
+        <v>0.2354881423119082</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.160642454335914</v>
+        <v>4.36156323450777</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.443622507573423</v>
+        <v>2.266044892900936</v>
       </c>
       <c r="C7">
-        <v>0.06488320494260336</v>
+        <v>0.1695180664667362</v>
       </c>
       <c r="D7">
-        <v>0.06515658996578111</v>
+        <v>0.1452298460007171</v>
       </c>
       <c r="E7">
-        <v>0.04571616281904411</v>
+        <v>0.023951197584271</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002661128146284159</v>
+        <v>0.000867557516618679</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.955533188184177</v>
+        <v>2.103990319633084</v>
       </c>
       <c r="L7">
-        <v>0.2590742727000901</v>
+        <v>0.2450390027387215</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5.183956110679361</v>
+        <v>4.429080028553983</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.524318405676524</v>
+        <v>2.662569360786449</v>
       </c>
       <c r="C8">
-        <v>0.0751041542181099</v>
+        <v>0.2083128274547619</v>
       </c>
       <c r="D8">
-        <v>0.07355241597844042</v>
+        <v>0.1775500234301006</v>
       </c>
       <c r="E8">
-        <v>0.04597337816994695</v>
+        <v>0.02642652861019279</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002653302127495127</v>
+        <v>0.0008544994293543508</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.040503914449744</v>
+        <v>2.497975270192114</v>
       </c>
       <c r="L8">
-        <v>0.2679191242568777</v>
+        <v>0.2883356695588475</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.28769293944427</v>
+        <v>4.734217912769623</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.694831807086018</v>
+        <v>3.489231946911048</v>
       </c>
       <c r="C9">
-        <v>0.09546807421580183</v>
+        <v>0.2884496311789349</v>
       </c>
       <c r="D9">
-        <v>0.09037113022728249</v>
+        <v>0.2440593767123858</v>
       </c>
       <c r="E9">
-        <v>0.04664142096421919</v>
+        <v>0.03167356043331182</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002639452809570968</v>
+        <v>0.0008299643212407827</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.21753863801888</v>
+        <v>3.317720476401973</v>
       </c>
       <c r="L9">
-        <v>0.2865840669068831</v>
+        <v>0.3785507379358108</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.494312885516422</v>
+        <v>5.365593739183765</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.827720222039716</v>
+        <v>4.138565323942316</v>
       </c>
       <c r="C10">
-        <v>0.1106439127221108</v>
+        <v>0.3510521797049364</v>
       </c>
       <c r="D10">
-        <v>0.1029576105584056</v>
+        <v>0.2957443073685795</v>
       </c>
       <c r="E10">
-        <v>0.04723232611098283</v>
+        <v>0.03584114244487679</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002630179568036741</v>
+        <v>0.0008124067930839603</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.354094252442167</v>
+        <v>3.960809688103325</v>
       </c>
       <c r="L10">
-        <v>0.3011170051718182</v>
+        <v>0.4493716366894347</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.648181674564455</v>
+        <v>5.8574567654764</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.889857923294983</v>
+        <v>4.446275663107201</v>
       </c>
       <c r="C11">
-        <v>0.1175986038835504</v>
+        <v>0.3806748869722583</v>
       </c>
       <c r="D11">
-        <v>0.1087364794088472</v>
+        <v>0.320110848384175</v>
       </c>
       <c r="E11">
-        <v>0.04752296404874912</v>
+        <v>0.03782411011918363</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002626154393822372</v>
+        <v>0.000804472590209135</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.41765846226707</v>
+        <v>4.265436776917568</v>
       </c>
       <c r="L11">
-        <v>0.3079098453166296</v>
+        <v>0.4829199667660902</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.718655742241538</v>
+        <v>6.089368633498111</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.913632502236794</v>
+        <v>4.564885390113886</v>
       </c>
       <c r="C12">
-        <v>0.1202398348067959</v>
+        <v>0.3920900696933529</v>
       </c>
       <c r="D12">
-        <v>0.1109326642924913</v>
+        <v>0.3294845278929159</v>
       </c>
       <c r="E12">
-        <v>0.04763616568208739</v>
+        <v>0.03858940722279058</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00262465777576276</v>
+        <v>0.0008014709515388978</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.441938652583644</v>
+        <v>4.382845449959632</v>
       </c>
       <c r="L12">
-        <v>0.3105084972751513</v>
+        <v>0.4958492492583417</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.74541308086458</v>
+        <v>6.178564606446798</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.908501321283381</v>
+        <v>4.539242333395293</v>
       </c>
       <c r="C13">
-        <v>0.1196706540219452</v>
+        <v>0.3896222269926852</v>
       </c>
       <c r="D13">
-        <v>0.1104593241099252</v>
+        <v>0.3274588015341351</v>
       </c>
       <c r="E13">
-        <v>0.04761164581772803</v>
+        <v>0.03842391413497559</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002624978872860145</v>
+        <v>0.000802117363250281</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.436700114078747</v>
+        <v>4.357462522603043</v>
       </c>
       <c r="L13">
-        <v>0.3099476555983784</v>
+        <v>0.4930540841378388</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.739647256047931</v>
+        <v>6.15928990348192</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.891808963290828</v>
+        <v>4.455989965461924</v>
       </c>
       <c r="C14">
-        <v>0.117815744748782</v>
+        <v>0.3816098495557014</v>
       </c>
       <c r="D14">
-        <v>0.1089170023225279</v>
+        <v>0.3208789398164384</v>
       </c>
       <c r="E14">
-        <v>0.04753221419423781</v>
+        <v>0.03788677151010589</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002626030713536706</v>
+        <v>0.0008042256155349459</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.419651791136118</v>
+        <v>4.275052928956313</v>
       </c>
       <c r="L14">
-        <v>0.308123108601464</v>
+        <v>0.4839789399291448</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.720855665974568</v>
+        <v>6.09667799320772</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.881616295405593</v>
+        <v>4.405277366745395</v>
       </c>
       <c r="C15">
-        <v>0.116680562895624</v>
+        <v>0.3767288590632347</v>
       </c>
       <c r="D15">
-        <v>0.1079733143451307</v>
+        <v>0.3168684412159735</v>
       </c>
       <c r="E15">
-        <v>0.04748396951061196</v>
+        <v>0.03755969017494287</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00262667858909848</v>
+        <v>0.0008055172024725278</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.409236586966017</v>
+        <v>4.224852243602299</v>
       </c>
       <c r="L15">
-        <v>0.3070089590901546</v>
+        <v>0.4784505787139466</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.709354480870502</v>
+        <v>6.058512116623604</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.823693468818306</v>
+        <v>4.118729517916051</v>
       </c>
       <c r="C16">
-        <v>0.1101904606373694</v>
+        <v>0.3491420095067213</v>
       </c>
       <c r="D16">
-        <v>0.1025810357740227</v>
+        <v>0.2941710407065443</v>
       </c>
       <c r="E16">
-        <v>0.04721377188450582</v>
+        <v>0.0357134569954507</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002630446497774731</v>
+        <v>0.0008129259867383139</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.349969425143456</v>
+        <v>3.941170603309672</v>
       </c>
       <c r="L16">
-        <v>0.3006767525334624</v>
+        <v>0.4472087412111989</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.643585786683616</v>
+        <v>5.842481623474754</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.788592891987491</v>
+        <v>3.946307357457044</v>
       </c>
       <c r="C17">
-        <v>0.1062222915081463</v>
+        <v>0.3325334670444136</v>
       </c>
       <c r="D17">
-        <v>0.09928681885655521</v>
+        <v>0.2804816080922024</v>
       </c>
       <c r="E17">
-        <v>0.04705360882100074</v>
+        <v>0.03460440790073882</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002632807371833162</v>
+        <v>0.0008174814160030869</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.313982362269314</v>
+        <v>3.770445433033444</v>
       </c>
       <c r="L17">
-        <v>0.2968388485424072</v>
+        <v>0.4284064026325467</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.603362444000425</v>
+        <v>5.712178941443739</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.768562553925278</v>
+        <v>3.848273417986661</v>
       </c>
       <c r="C18">
-        <v>0.1039447002810334</v>
+        <v>0.3230861316595508</v>
       </c>
       <c r="D18">
-        <v>0.09739706916380442</v>
+        <v>0.2726866558368926</v>
       </c>
       <c r="E18">
-        <v>0.04696354196110875</v>
+        <v>0.03397458556635868</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00263418348543083</v>
+        <v>0.0008201068692870444</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.293419378300541</v>
+        <v>3.673364595979649</v>
       </c>
       <c r="L18">
-        <v>0.2946484799700073</v>
+        <v>0.4177148282900589</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.580271975283608</v>
+        <v>5.637986680338145</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.761807805044896</v>
+        <v>3.81526757889975</v>
       </c>
       <c r="C19">
-        <v>0.1031743618076177</v>
+        <v>0.319904613120201</v>
       </c>
       <c r="D19">
-        <v>0.09675808453519608</v>
+        <v>0.2700602966049388</v>
       </c>
       <c r="E19">
-        <v>0.04693339965272081</v>
+        <v>0.0337626726721254</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002634652544893039</v>
+        <v>0.0008209968440434809</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.286480369606011</v>
+        <v>3.640677483024206</v>
       </c>
       <c r="L19">
-        <v>0.293909787876018</v>
+        <v>0.4141150279088635</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.572461609922101</v>
+        <v>5.612990334833995</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.792312981569808</v>
+        <v>3.964542012838422</v>
       </c>
       <c r="C20">
-        <v>0.1066442115785549</v>
+        <v>0.3342903367869212</v>
       </c>
       <c r="D20">
-        <v>0.09963697528668547</v>
+        <v>0.2819305509748489</v>
       </c>
       <c r="E20">
-        <v>0.04707044577207142</v>
+        <v>0.03472161986131006</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002632554170158121</v>
+        <v>0.0008169959673189897</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.317799174319759</v>
+        <v>3.788501808852004</v>
       </c>
       <c r="L20">
-        <v>0.2972456294262855</v>
+        <v>0.4303949815885346</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.607639625833997</v>
+        <v>5.725970436121059</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.896705265498213</v>
+        <v>4.480383828921617</v>
       </c>
       <c r="C21">
-        <v>0.1183603668876856</v>
+        <v>0.3839576224311543</v>
       </c>
       <c r="D21">
-        <v>0.1093698048863416</v>
+        <v>0.3228074190276402</v>
       </c>
       <c r="E21">
-        <v>0.04755545984490972</v>
+        <v>0.03804413654562744</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002625721013931975</v>
+        <v>0.0008036063339929445</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.424653585823933</v>
+        <v>4.299200144063605</v>
       </c>
       <c r="L21">
-        <v>0.3086583053671887</v>
+        <v>0.486638121051044</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.726373290091999</v>
+        <v>6.115029517949893</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.966357018756469</v>
+        <v>4.829861165043781</v>
       </c>
       <c r="C22">
-        <v>0.1260622225173904</v>
+        <v>0.4175899405548478</v>
       </c>
       <c r="D22">
-        <v>0.1157766383560812</v>
+        <v>0.3503910940198267</v>
       </c>
       <c r="E22">
-        <v>0.04789076850931906</v>
+        <v>0.04030054531122573</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002621416112604802</v>
+        <v>0.0007948694338860555</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.495713027773434</v>
+        <v>4.645121797052241</v>
       </c>
       <c r="L22">
-        <v>0.316270846395895</v>
+        <v>0.5247288978621469</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.804383322703472</v>
+        <v>6.377439851450504</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.929051498752187</v>
+        <v>4.642091847093297</v>
       </c>
       <c r="C23">
-        <v>0.1219474133029053</v>
+        <v>0.3995200989016325</v>
       </c>
       <c r="D23">
-        <v>0.112352926907036</v>
+        <v>0.3355808984651532</v>
       </c>
       <c r="E23">
-        <v>0.04771012994365442</v>
+        <v>0.03908779381693783</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002623699045465951</v>
+        <v>0.0007995329566288271</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.457674570833433</v>
+        <v>4.459267349774848</v>
       </c>
       <c r="L23">
-        <v>0.3121937533296517</v>
+        <v>0.5042646153423362</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.762709803048324</v>
+        <v>6.236566637499436</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.790630663707304</v>
+        <v>3.95629474109893</v>
       </c>
       <c r="C24">
-        <v>0.1064534498187868</v>
+        <v>0.3334957433862371</v>
       </c>
       <c r="D24">
-        <v>0.09947865668638656</v>
+        <v>0.2812752511403858</v>
       </c>
       <c r="E24">
-        <v>0.04706282751670265</v>
+        <v>0.03466860422316564</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002632668584076292</v>
+        <v>0.0008172154181887412</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.316073199862103</v>
+        <v>3.780335207542748</v>
       </c>
       <c r="L24">
-        <v>0.2970616736772485</v>
+        <v>0.429495579542106</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.605705804687204</v>
+        <v>5.719733072132215</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.647376382923369</v>
+        <v>3.259192520675413</v>
       </c>
       <c r="C25">
-        <v>0.08992281830484217</v>
+        <v>0.2662168943054155</v>
       </c>
       <c r="D25">
-        <v>0.08578186883910632</v>
+        <v>0.2256446556161791</v>
       </c>
       <c r="E25">
-        <v>0.04644314528824545</v>
+        <v>0.03020503654965445</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002643040245885908</v>
+        <v>0.0008365046964160516</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.168517193931166</v>
+        <v>3.089758637156024</v>
       </c>
       <c r="L25">
-        <v>0.2813918379020635</v>
+        <v>0.3534522853012447</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.438062713733103</v>
+        <v>5.190503776596557</v>
       </c>
       <c r="O25">
         <v>0</v>
